--- a/biology/Histoire de la zoologie et de la botanique/Theodor_Becker/Theodor_Becker.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Theodor_Becker/Theodor_Becker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Theodor Becker est un entomologiste allemand, né le 23 juin 1840 à Gut Wahlsdorff[pas clair] près de Plön et mort le 30 juin 1928 à Liegnitz.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">D’origine danoise, il vit à Liegnitz en Silésie où il est ingénieur civil. Il consacre ses loisirs à l’étude des diptères et est le coéditeur, aux côtés de Mario Bezzi (1868-1927), de Paul Stein (1852-1921) et de Kálmán Kertész (1867-1922), d’un catalogue des diptères européens qui paraît de 1903 à 1917. Ses collections sont conservées au musée d'histoire naturelle de Berlin.
 </t>
@@ -542,7 +556,9 @@
           <t>Quelques œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">1902. Die Meigenschen Typen der sog. Musciden Acalyptratae (Muscaria, Holometopa). Zeitschrift für systematische Hymenopterologie und Dipterologie 2: 209-256, 289-320, 337-349.
 1903. Die Typen der v. Roser’schen Dipteren-Sammlung in Stuttgart. Diptera Cyclorrhapha Schizophora. Jahreshefte des Vereins für Vaterländische Naturkunde in Württemberg 59: 52-66.
